--- a/uploads/doc_wi/nip_wi.xlsx
+++ b/uploads/doc_wi/nip_wi.xlsx
@@ -24,9 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NIP</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>soni</t>
   </si>
 </sst>
 </file>
@@ -342,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -353,19 +359,20 @@
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1.9530129198203101E+17</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1.9521221197803101E+17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
